--- a/汽柴煤油2.0/eta/新加坡航空煤油裂解价差_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/新加坡航空煤油裂解价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>19.12</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.34</v>
+        <v>21.54</v>
       </c>
       <c r="C3" t="n">
-        <v>16.85</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>16.91</v>
       </c>
       <c r="C4" t="n">
-        <v>16.13</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>14.95</v>
       </c>
       <c r="C5" t="n">
-        <v>15.86</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         <v>15.39</v>
       </c>
       <c r="C7" t="n">
-        <v>15.37</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>12.98</v>
       </c>
       <c r="C9" t="n">
-        <v>13.02</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>12.82</v>
       </c>
       <c r="C10" t="n">
-        <v>12.87</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>13.75</v>
       </c>
       <c r="C11" t="n">
-        <v>13.85</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>14.55</v>
       </c>
       <c r="C13" t="n">
-        <v>14.56</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="14">
@@ -627,7 +627,7 @@
         <v>12.98</v>
       </c>
       <c r="C15" t="n">
-        <v>12.94</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="16">
@@ -653,7 +653,7 @@
         <v>13.86</v>
       </c>
       <c r="C17" t="n">
-        <v>13.81</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>14.54</v>
       </c>
       <c r="C18" t="n">
-        <v>14.49</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="19">
@@ -705,7 +705,7 @@
         <v>13.61</v>
       </c>
       <c r="C21" t="n">
-        <v>13.61</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>18.32</v>
       </c>
       <c r="C22" t="n">
-        <v>18.3</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="23">
@@ -744,7 +744,7 @@
         <v>22.72</v>
       </c>
       <c r="C24" t="n">
-        <v>22.65</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="25">
